--- a/NetLiquidity/TreasuryData/TGA_Since2005_BU.xlsx
+++ b/NetLiquidity/TreasuryData/TGA_Since2005_BU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/venv/NetLiquidity/TreasuryData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/TempVenv/Plebs_Macro/NetLiquidity/TreasuryData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDD1498-C391-8A42-A82B-D17E03AEB7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C8FB31-336B-B841-B9F9-AEEA243AADA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4356" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4410" uniqueCount="8">
   <si>
     <t>record_date</t>
   </si>
@@ -103,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -111,8 +111,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -417,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4351"/>
+  <dimension ref="A1:F4405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3152" workbookViewId="0">
-      <selection activeCell="G3167" sqref="G3167"/>
+    <sheetView tabSelected="1" topLeftCell="A4355" workbookViewId="0">
+      <selection activeCell="I4379" sqref="I4379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -71121,7 +71120,7 @@
       <c r="E4158">
         <v>651523</v>
       </c>
-      <c r="F4158" s="4"/>
+      <c r="F4158" s="3"/>
     </row>
     <row r="4159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4159" s="2">
@@ -71139,7 +71138,7 @@
       <c r="E4159">
         <v>841253</v>
       </c>
-      <c r="F4159" s="3">
+      <c r="F4159">
         <v>841253</v>
       </c>
     </row>
@@ -71159,7 +71158,7 @@
       <c r="E4160">
         <v>893351</v>
       </c>
-      <c r="F4160" s="3">
+      <c r="F4160">
         <v>893351</v>
       </c>
     </row>
@@ -71179,7 +71178,7 @@
       <c r="E4161">
         <v>907526</v>
       </c>
-      <c r="F4161" s="3">
+      <c r="F4161">
         <v>907526</v>
       </c>
     </row>
@@ -71199,7 +71198,7 @@
       <c r="E4162">
         <v>918877</v>
       </c>
-      <c r="F4162" s="3">
+      <c r="F4162">
         <v>918877</v>
       </c>
     </row>
@@ -71219,7 +71218,7 @@
       <c r="E4163">
         <v>934238</v>
       </c>
-      <c r="F4163" s="3">
+      <c r="F4163">
         <v>934238</v>
       </c>
     </row>
@@ -71239,7 +71238,7 @@
       <c r="E4164">
         <v>958291</v>
       </c>
-      <c r="F4164" s="3">
+      <c r="F4164">
         <v>958291</v>
       </c>
     </row>
@@ -71259,7 +71258,7 @@
       <c r="E4165">
         <v>972993</v>
       </c>
-      <c r="F4165" s="3">
+      <c r="F4165">
         <v>972993</v>
       </c>
     </row>
@@ -71279,7 +71278,7 @@
       <c r="E4166">
         <v>957419</v>
       </c>
-      <c r="F4166" s="3">
+      <c r="F4166">
         <v>957419</v>
       </c>
     </row>
@@ -71299,7 +71298,7 @@
       <c r="E4167">
         <v>953933</v>
       </c>
-      <c r="F4167" s="3">
+      <c r="F4167">
         <v>953933</v>
       </c>
     </row>
@@ -71319,7 +71318,7 @@
       <c r="E4168">
         <v>923240</v>
       </c>
-      <c r="F4168" s="3">
+      <c r="F4168">
         <v>923240</v>
       </c>
     </row>
@@ -71339,7 +71338,7 @@
       <c r="E4169">
         <v>975018</v>
       </c>
-      <c r="F4169" s="3">
+      <c r="F4169">
         <v>975018</v>
       </c>
     </row>
@@ -71359,7 +71358,7 @@
       <c r="E4170">
         <v>955262</v>
       </c>
-      <c r="F4170" s="3">
+      <c r="F4170">
         <v>955262</v>
       </c>
     </row>
@@ -71379,7 +71378,7 @@
       <c r="E4171">
         <v>964412</v>
       </c>
-      <c r="F4171" s="3">
+      <c r="F4171">
         <v>964412</v>
       </c>
     </row>
@@ -71399,7 +71398,7 @@
       <c r="E4172">
         <v>943481</v>
       </c>
-      <c r="F4172" s="3">
+      <c r="F4172">
         <v>943481</v>
       </c>
     </row>
@@ -71419,7 +71418,7 @@
       <c r="E4173">
         <v>950700</v>
       </c>
-      <c r="F4173" s="3">
+      <c r="F4173">
         <v>950700</v>
       </c>
     </row>
@@ -71439,7 +71438,7 @@
       <c r="E4174">
         <v>962928</v>
       </c>
-      <c r="F4174" s="3">
+      <c r="F4174">
         <v>962928</v>
       </c>
     </row>
@@ -71459,7 +71458,7 @@
       <c r="E4175">
         <v>941766</v>
       </c>
-      <c r="F4175" s="3">
+      <c r="F4175">
         <v>941766</v>
       </c>
     </row>
@@ -71479,7 +71478,7 @@
       <c r="E4176">
         <v>919331</v>
       </c>
-      <c r="F4176" s="3">
+      <c r="F4176">
         <v>919331</v>
       </c>
     </row>
@@ -71499,7 +71498,7 @@
       <c r="E4177">
         <v>893803</v>
       </c>
-      <c r="F4177" s="3">
+      <c r="F4177">
         <v>893803</v>
       </c>
     </row>
@@ -71519,7 +71518,7 @@
       <c r="E4178">
         <v>880792</v>
       </c>
-      <c r="F4178" s="3">
+      <c r="F4178">
         <v>880792</v>
       </c>
     </row>
@@ -71539,7 +71538,7 @@
       <c r="E4179">
         <v>914571</v>
       </c>
-      <c r="F4179" s="3">
+      <c r="F4179">
         <v>914571</v>
       </c>
     </row>
@@ -71559,7 +71558,7 @@
       <c r="E4180">
         <v>891271</v>
       </c>
-      <c r="F4180" s="3">
+      <c r="F4180">
         <v>891271</v>
       </c>
     </row>
@@ -71579,7 +71578,7 @@
       <c r="E4181">
         <v>866726</v>
       </c>
-      <c r="F4181" s="3">
+      <c r="F4181">
         <v>866726</v>
       </c>
     </row>
@@ -71599,7 +71598,7 @@
       <c r="E4182">
         <v>825182</v>
       </c>
-      <c r="F4182" s="3">
+      <c r="F4182">
         <v>825182</v>
       </c>
     </row>
@@ -71619,7 +71618,7 @@
       <c r="E4183">
         <v>822339</v>
       </c>
-      <c r="F4183" s="3">
+      <c r="F4183">
         <v>822339</v>
       </c>
     </row>
@@ -71639,7 +71638,7 @@
       <c r="E4184">
         <v>838141</v>
       </c>
-      <c r="F4184" s="3">
+      <c r="F4184">
         <v>838141</v>
       </c>
     </row>
@@ -71659,7 +71658,7 @@
       <c r="E4185">
         <v>818688</v>
       </c>
-      <c r="F4185" s="3">
+      <c r="F4185">
         <v>818688</v>
       </c>
     </row>
@@ -71679,7 +71678,7 @@
       <c r="E4186">
         <v>801714</v>
       </c>
-      <c r="F4186" s="3">
+      <c r="F4186">
         <v>801714</v>
       </c>
     </row>
@@ -71699,7 +71698,7 @@
       <c r="E4187">
         <v>762674</v>
       </c>
-      <c r="F4187" s="3">
+      <c r="F4187">
         <v>762674</v>
       </c>
     </row>
@@ -71719,7 +71718,7 @@
       <c r="E4188">
         <v>782309</v>
       </c>
-      <c r="F4188" s="3">
+      <c r="F4188">
         <v>782309</v>
       </c>
     </row>
@@ -71739,7 +71738,7 @@
       <c r="E4189">
         <v>854240</v>
       </c>
-      <c r="F4189" s="3">
+      <c r="F4189">
         <v>854240</v>
       </c>
     </row>
@@ -71759,7 +71758,7 @@
       <c r="E4190">
         <v>780575</v>
       </c>
-      <c r="F4190" s="3">
+      <c r="F4190">
         <v>780575</v>
       </c>
     </row>
@@ -71779,7 +71778,7 @@
       <c r="E4191">
         <v>757559</v>
       </c>
-      <c r="F4191" s="3">
+      <c r="F4191">
         <v>757559</v>
       </c>
     </row>
@@ -71799,7 +71798,7 @@
       <c r="E4192">
         <v>731781</v>
       </c>
-      <c r="F4192" s="3">
+      <c r="F4192">
         <v>731781</v>
       </c>
     </row>
@@ -71819,7 +71818,7 @@
       <c r="E4193">
         <v>724554</v>
       </c>
-      <c r="F4193" s="3">
+      <c r="F4193">
         <v>724554</v>
       </c>
     </row>
@@ -71839,7 +71838,7 @@
       <c r="E4194">
         <v>702336</v>
       </c>
-      <c r="F4194" s="3">
+      <c r="F4194">
         <v>702336</v>
       </c>
     </row>
@@ -71859,7 +71858,7 @@
       <c r="E4195">
         <v>683892</v>
       </c>
-      <c r="F4195" s="3">
+      <c r="F4195">
         <v>683892</v>
       </c>
     </row>
@@ -71879,7 +71878,7 @@
       <c r="E4196">
         <v>631026</v>
       </c>
-      <c r="F4196" s="3">
+      <c r="F4196">
         <v>631026</v>
       </c>
     </row>
@@ -71899,7 +71898,7 @@
       <c r="E4197">
         <v>627393</v>
       </c>
-      <c r="F4197" s="3">
+      <c r="F4197">
         <v>627393</v>
       </c>
     </row>
@@ -71919,7 +71918,7 @@
       <c r="E4198">
         <v>653718</v>
       </c>
-      <c r="F4198" s="3">
+      <c r="F4198">
         <v>653718</v>
       </c>
     </row>
@@ -71939,7 +71938,7 @@
       <c r="E4199">
         <v>661227</v>
       </c>
-      <c r="F4199" s="3">
+      <c r="F4199">
         <v>661227</v>
       </c>
     </row>
@@ -71959,7 +71958,7 @@
       <c r="E4200">
         <v>769937</v>
       </c>
-      <c r="F4200" s="3">
+      <c r="F4200">
         <v>769937</v>
       </c>
     </row>
@@ -71979,7 +71978,7 @@
       <c r="E4201">
         <v>755888</v>
       </c>
-      <c r="F4201" s="3">
+      <c r="F4201">
         <v>755888</v>
       </c>
     </row>
@@ -71999,7 +71998,7 @@
       <c r="E4202">
         <v>762327</v>
       </c>
-      <c r="F4202" s="3">
+      <c r="F4202">
         <v>762327</v>
       </c>
     </row>
@@ -72019,7 +72018,7 @@
       <c r="E4203">
         <v>757733</v>
       </c>
-      <c r="F4203" s="3">
+      <c r="F4203">
         <v>757733</v>
       </c>
     </row>
@@ -72039,7 +72038,7 @@
       <c r="E4204">
         <v>745052</v>
       </c>
-      <c r="F4204" s="3">
+      <c r="F4204">
         <v>745052</v>
       </c>
     </row>
@@ -72059,7 +72058,7 @@
       <c r="E4205">
         <v>735139</v>
       </c>
-      <c r="F4205" s="3">
+      <c r="F4205">
         <v>735139</v>
       </c>
     </row>
@@ -72079,7 +72078,7 @@
       <c r="E4206">
         <v>758505</v>
       </c>
-      <c r="F4206" s="3">
+      <c r="F4206">
         <v>758505</v>
       </c>
     </row>
@@ -72099,7 +72098,7 @@
       <c r="E4207">
         <v>768652</v>
       </c>
-      <c r="F4207" s="3">
+      <c r="F4207">
         <v>768652</v>
       </c>
     </row>
@@ -72119,7 +72118,7 @@
       <c r="E4208">
         <v>757242</v>
       </c>
-      <c r="F4208" s="3">
+      <c r="F4208">
         <v>757242</v>
       </c>
     </row>
@@ -72139,7 +72138,7 @@
       <c r="E4209">
         <v>759845</v>
       </c>
-      <c r="F4209" s="3">
+      <c r="F4209">
         <v>759845</v>
       </c>
     </row>
@@ -72159,7 +72158,7 @@
       <c r="E4210">
         <v>782406</v>
       </c>
-      <c r="F4210" s="3">
+      <c r="F4210">
         <v>782406</v>
       </c>
     </row>
@@ -72179,7 +72178,7 @@
       <c r="E4211">
         <v>685842</v>
       </c>
-      <c r="F4211" s="3">
+      <c r="F4211">
         <v>685842</v>
       </c>
     </row>
@@ -72199,7 +72198,7 @@
       <c r="E4212">
         <v>689482</v>
       </c>
-      <c r="F4212" s="3">
+      <c r="F4212">
         <v>689482</v>
       </c>
     </row>
@@ -72219,7 +72218,7 @@
       <c r="E4213">
         <v>687943</v>
       </c>
-      <c r="F4213" s="3">
+      <c r="F4213">
         <v>687943</v>
       </c>
     </row>
@@ -72239,7 +72238,7 @@
       <c r="E4214">
         <v>666044</v>
       </c>
-      <c r="F4214" s="3">
+      <c r="F4214">
         <v>666044</v>
       </c>
     </row>
@@ -72259,7 +72258,7 @@
       <c r="E4215">
         <v>658096</v>
       </c>
-      <c r="F4215" s="3">
+      <c r="F4215">
         <v>658096</v>
       </c>
     </row>
@@ -72279,7 +72278,7 @@
       <c r="E4216">
         <v>665792</v>
       </c>
-      <c r="F4216" s="3">
+      <c r="F4216">
         <v>665792</v>
       </c>
     </row>
@@ -72299,7 +72298,7 @@
       <c r="E4217">
         <v>643141</v>
       </c>
-      <c r="F4217" s="3">
+      <c r="F4217">
         <v>643141</v>
       </c>
     </row>
@@ -72319,7 +72318,7 @@
       <c r="E4218">
         <v>618740</v>
       </c>
-      <c r="F4218" s="3">
+      <c r="F4218">
         <v>618740</v>
       </c>
     </row>
@@ -72339,7 +72338,7 @@
       <c r="E4219">
         <v>595272</v>
       </c>
-      <c r="F4219" s="3">
+      <c r="F4219">
         <v>595272</v>
       </c>
     </row>
@@ -72359,7 +72358,7 @@
       <c r="E4220">
         <v>606834</v>
       </c>
-      <c r="F4220" s="3">
+      <c r="F4220">
         <v>606834</v>
       </c>
     </row>
@@ -72379,7 +72378,7 @@
       <c r="E4221">
         <v>628659</v>
       </c>
-      <c r="F4221" s="3">
+      <c r="F4221">
         <v>628659</v>
       </c>
     </row>
@@ -72399,7 +72398,7 @@
       <c r="E4222">
         <v>636362</v>
       </c>
-      <c r="F4222" s="3">
+      <c r="F4222">
         <v>636362</v>
       </c>
     </row>
@@ -72419,7 +72418,7 @@
       <c r="E4223">
         <v>616348</v>
       </c>
-      <c r="F4223" s="3">
+      <c r="F4223">
         <v>616348</v>
       </c>
     </row>
@@ -72439,7 +72438,7 @@
       <c r="E4224">
         <v>594035</v>
       </c>
-      <c r="F4224" s="3">
+      <c r="F4224">
         <v>594035</v>
       </c>
     </row>
@@ -72459,7 +72458,7 @@
       <c r="E4225">
         <v>589322</v>
       </c>
-      <c r="F4225" s="3">
+      <c r="F4225">
         <v>589322</v>
       </c>
     </row>
@@ -72479,7 +72478,7 @@
       <c r="E4226">
         <v>605872</v>
       </c>
-      <c r="F4226" s="3">
+      <c r="F4226">
         <v>605872</v>
       </c>
     </row>
@@ -72499,7 +72498,7 @@
       <c r="E4227">
         <v>637228</v>
       </c>
-      <c r="F4227" s="3">
+      <c r="F4227">
         <v>637228</v>
       </c>
     </row>
@@ -72519,7 +72518,7 @@
       <c r="E4228">
         <v>615515</v>
       </c>
-      <c r="F4228" s="3">
+      <c r="F4228">
         <v>615515</v>
       </c>
     </row>
@@ -72539,7 +72538,7 @@
       <c r="E4229">
         <v>597017</v>
       </c>
-      <c r="F4229" s="3">
+      <c r="F4229">
         <v>597017</v>
       </c>
     </row>
@@ -72559,7 +72558,7 @@
       <c r="E4230">
         <v>619273</v>
       </c>
-      <c r="F4230" s="3">
+      <c r="F4230">
         <v>619273</v>
       </c>
     </row>
@@ -72579,7 +72578,7 @@
       <c r="E4231">
         <v>551023</v>
       </c>
-      <c r="F4231" s="3">
+      <c r="F4231">
         <v>551023</v>
       </c>
     </row>
@@ -72599,7 +72598,7 @@
       <c r="E4232">
         <v>586370</v>
       </c>
-      <c r="F4232" s="3">
+      <c r="F4232">
         <v>586370</v>
       </c>
     </row>
@@ -72619,7 +72618,7 @@
       <c r="E4233">
         <v>566577</v>
       </c>
-      <c r="F4233" s="3">
+      <c r="F4233">
         <v>566577</v>
       </c>
     </row>
@@ -72639,7 +72638,7 @@
       <c r="E4234">
         <v>554402</v>
       </c>
-      <c r="F4234" s="3">
+      <c r="F4234">
         <v>554402</v>
       </c>
     </row>
@@ -72659,7 +72658,7 @@
       <c r="E4235">
         <v>548849</v>
       </c>
-      <c r="F4235" s="3">
+      <c r="F4235">
         <v>548849</v>
       </c>
     </row>
@@ -72679,7 +72678,7 @@
       <c r="E4236">
         <v>555513</v>
       </c>
-      <c r="F4236" s="3">
+      <c r="F4236">
         <v>555513</v>
       </c>
     </row>
@@ -72699,7 +72698,7 @@
       <c r="E4237">
         <v>583255</v>
       </c>
-      <c r="F4237" s="3">
+      <c r="F4237">
         <v>583255</v>
       </c>
     </row>
@@ -72719,7 +72718,7 @@
       <c r="E4238">
         <v>561140</v>
       </c>
-      <c r="F4238" s="3">
+      <c r="F4238">
         <v>561140</v>
       </c>
     </row>
@@ -72739,7 +72738,7 @@
       <c r="E4239">
         <v>546978</v>
       </c>
-      <c r="F4239" s="3">
+      <c r="F4239">
         <v>546978</v>
       </c>
     </row>
@@ -72759,7 +72758,7 @@
       <c r="E4240">
         <v>548414</v>
       </c>
-      <c r="F4240" s="3">
+      <c r="F4240">
         <v>548414</v>
       </c>
     </row>
@@ -72779,7 +72778,7 @@
       <c r="E4241">
         <v>525921</v>
       </c>
-      <c r="F4241" s="3">
+      <c r="F4241">
         <v>525921</v>
       </c>
     </row>
@@ -72799,7 +72798,7 @@
       <c r="E4242">
         <v>559827</v>
       </c>
-      <c r="F4242" s="3">
+      <c r="F4242">
         <v>559827</v>
       </c>
     </row>
@@ -72819,7 +72818,7 @@
       <c r="E4243">
         <v>539278</v>
       </c>
-      <c r="F4243" s="3">
+      <c r="F4243">
         <v>539278</v>
       </c>
     </row>
@@ -72839,7 +72838,7 @@
       <c r="E4244">
         <v>530499</v>
       </c>
-      <c r="F4244" s="3">
+      <c r="F4244">
         <v>530499</v>
       </c>
     </row>
@@ -72859,7 +72858,7 @@
       <c r="E4245">
         <v>529281</v>
       </c>
-      <c r="F4245" s="3">
+      <c r="F4245">
         <v>529281</v>
       </c>
     </row>
@@ -72879,7 +72878,7 @@
       <c r="E4246">
         <v>543194</v>
       </c>
-      <c r="F4246" s="3">
+      <c r="F4246">
         <v>543194</v>
       </c>
     </row>
@@ -72899,7 +72898,7 @@
       <c r="E4247">
         <v>555139</v>
       </c>
-      <c r="F4247" s="3">
+      <c r="F4247">
         <v>555139</v>
       </c>
     </row>
@@ -72919,7 +72918,7 @@
       <c r="E4248">
         <v>530196</v>
       </c>
-      <c r="F4248" s="3">
+      <c r="F4248">
         <v>530196</v>
       </c>
     </row>
@@ -72939,7 +72938,7 @@
       <c r="E4249">
         <v>580033</v>
       </c>
-      <c r="F4249" s="3">
+      <c r="F4249">
         <v>580033</v>
       </c>
     </row>
@@ -72959,7 +72958,7 @@
       <c r="E4250">
         <v>600109</v>
       </c>
-      <c r="F4250" s="3">
+      <c r="F4250">
         <v>600109</v>
       </c>
     </row>
@@ -72979,7 +72978,7 @@
       <c r="E4251">
         <v>610399</v>
       </c>
-      <c r="F4251" s="3">
+      <c r="F4251">
         <v>610399</v>
       </c>
     </row>
@@ -72999,7 +72998,7 @@
       <c r="E4252">
         <v>627082</v>
       </c>
-      <c r="F4252" s="3">
+      <c r="F4252">
         <v>627082</v>
       </c>
     </row>
@@ -73019,7 +73018,7 @@
       <c r="E4253">
         <v>669911</v>
       </c>
-      <c r="F4253" s="3">
+      <c r="F4253">
         <v>669911</v>
       </c>
     </row>
@@ -73039,7 +73038,7 @@
       <c r="E4254">
         <v>598859</v>
       </c>
-      <c r="F4254" s="3">
+      <c r="F4254">
         <v>598859</v>
       </c>
     </row>
@@ -73059,7 +73058,7 @@
       <c r="E4255">
         <v>574423</v>
       </c>
-      <c r="F4255" s="3">
+      <c r="F4255">
         <v>574423</v>
       </c>
     </row>
@@ -73079,7 +73078,7 @@
       <c r="E4256">
         <v>589596</v>
       </c>
-      <c r="F4256" s="3">
+      <c r="F4256">
         <v>589596</v>
       </c>
     </row>
@@ -73099,7 +73098,7 @@
       <c r="E4257">
         <v>582921</v>
       </c>
-      <c r="F4257" s="3">
+      <c r="F4257">
         <v>582921</v>
       </c>
     </row>
@@ -73119,7 +73118,7 @@
       <c r="E4258">
         <v>581785</v>
       </c>
-      <c r="F4258" s="3">
+      <c r="F4258">
         <v>581785</v>
       </c>
     </row>
@@ -73139,7 +73138,7 @@
       <c r="E4259">
         <v>585000</v>
       </c>
-      <c r="F4259" s="3">
+      <c r="F4259">
         <v>585000</v>
       </c>
     </row>
@@ -73159,7 +73158,7 @@
       <c r="E4260">
         <v>601944</v>
       </c>
-      <c r="F4260" s="3">
+      <c r="F4260">
         <v>601944</v>
       </c>
     </row>
@@ -73179,7 +73178,7 @@
       <c r="E4261">
         <v>599932</v>
       </c>
-      <c r="F4261" s="3">
+      <c r="F4261">
         <v>599932</v>
       </c>
     </row>
@@ -73199,7 +73198,7 @@
       <c r="E4262">
         <v>617997</v>
       </c>
-      <c r="F4262" s="3">
+      <c r="F4262">
         <v>617997</v>
       </c>
     </row>
@@ -73219,7 +73218,7 @@
       <c r="E4263">
         <v>677452</v>
       </c>
-      <c r="F4263" s="3">
+      <c r="F4263">
         <v>677452</v>
       </c>
     </row>
@@ -73239,7 +73238,7 @@
       <c r="E4264">
         <v>692971</v>
       </c>
-      <c r="F4264" s="3">
+      <c r="F4264">
         <v>692971</v>
       </c>
     </row>
@@ -73259,7 +73258,7 @@
       <c r="E4265">
         <v>704998</v>
       </c>
-      <c r="F4265" s="3">
+      <c r="F4265">
         <v>704998</v>
       </c>
     </row>
@@ -73279,7 +73278,7 @@
       <c r="E4266">
         <v>695823</v>
       </c>
-      <c r="F4266" s="3">
+      <c r="F4266">
         <v>695823</v>
       </c>
     </row>
@@ -73299,7 +73298,7 @@
       <c r="E4267">
         <v>690286</v>
       </c>
-      <c r="F4267" s="3">
+      <c r="F4267">
         <v>690286</v>
       </c>
     </row>
@@ -73319,7 +73318,7 @@
       <c r="E4268">
         <v>682027</v>
       </c>
-      <c r="F4268" s="3">
+      <c r="F4268">
         <v>682027</v>
       </c>
     </row>
@@ -73339,7 +73338,7 @@
       <c r="E4269">
         <v>697726</v>
       </c>
-      <c r="F4269" s="3">
+      <c r="F4269">
         <v>697726</v>
       </c>
     </row>
@@ -73359,7 +73358,7 @@
       <c r="E4270">
         <v>705918</v>
       </c>
-      <c r="F4270" s="3">
+      <c r="F4270">
         <v>705918</v>
       </c>
     </row>
@@ -73379,7 +73378,7 @@
       <c r="E4271">
         <v>683943</v>
       </c>
-      <c r="F4271" s="3">
+      <c r="F4271">
         <v>683943</v>
       </c>
     </row>
@@ -73399,7 +73398,7 @@
       <c r="E4272">
         <v>661920</v>
       </c>
-      <c r="F4272" s="3">
+      <c r="F4272">
         <v>661920</v>
       </c>
     </row>
@@ -73419,7 +73418,7 @@
       <c r="E4273">
         <v>658634</v>
       </c>
-      <c r="F4273" s="3">
+      <c r="F4273">
         <v>658634</v>
       </c>
     </row>
@@ -73439,7 +73438,7 @@
       <c r="E4274">
         <v>635994</v>
       </c>
-      <c r="F4274" s="3">
+      <c r="F4274">
         <v>635994</v>
       </c>
     </row>
@@ -73459,7 +73458,7 @@
       <c r="E4275">
         <v>630975</v>
       </c>
-      <c r="F4275" s="3">
+      <c r="F4275">
         <v>630975</v>
       </c>
     </row>
@@ -73479,7 +73478,7 @@
       <c r="E4276">
         <v>617850</v>
       </c>
-      <c r="F4276" s="3">
+      <c r="F4276">
         <v>617850</v>
       </c>
     </row>
@@ -73499,7 +73498,7 @@
       <c r="E4277">
         <v>622131</v>
       </c>
-      <c r="F4277" s="3">
+      <c r="F4277">
         <v>622131</v>
       </c>
     </row>
@@ -73519,7 +73518,7 @@
       <c r="E4278">
         <v>612400</v>
       </c>
-      <c r="F4278" s="3">
+      <c r="F4278">
         <v>612400</v>
       </c>
     </row>
@@ -73539,7 +73538,7 @@
       <c r="E4279">
         <v>611855</v>
       </c>
-      <c r="F4279" s="3">
+      <c r="F4279">
         <v>611855</v>
       </c>
     </row>
@@ -73559,7 +73558,7 @@
       <c r="E4280">
         <v>614781</v>
       </c>
-      <c r="F4280" s="3">
+      <c r="F4280">
         <v>614781</v>
       </c>
     </row>
@@ -73579,7 +73578,7 @@
       <c r="E4281">
         <v>583513</v>
       </c>
-      <c r="F4281" s="3">
+      <c r="F4281">
         <v>583513</v>
       </c>
     </row>
@@ -73599,7 +73598,7 @@
       <c r="E4282">
         <v>578283</v>
       </c>
-      <c r="F4282" s="3">
+      <c r="F4282">
         <v>578283</v>
       </c>
     </row>
@@ -73619,7 +73618,7 @@
       <c r="E4283">
         <v>574982</v>
       </c>
-      <c r="F4283" s="3">
+      <c r="F4283">
         <v>574982</v>
       </c>
     </row>
@@ -73639,7 +73638,7 @@
       <c r="E4284">
         <v>651318</v>
       </c>
-      <c r="F4284" s="3">
+      <c r="F4284">
         <v>651318</v>
       </c>
     </row>
@@ -73659,7 +73658,7 @@
       <c r="E4285">
         <v>655230</v>
       </c>
-      <c r="F4285" s="3">
+      <c r="F4285">
         <v>655230</v>
       </c>
     </row>
@@ -73679,7 +73678,7 @@
       <c r="E4286">
         <v>640613</v>
       </c>
-      <c r="F4286" s="3">
+      <c r="F4286">
         <v>640613</v>
       </c>
     </row>
@@ -73699,7 +73698,7 @@
       <c r="E4287">
         <v>635492</v>
       </c>
-      <c r="F4287" s="3">
+      <c r="F4287">
         <v>635492</v>
       </c>
     </row>
@@ -73719,7 +73718,7 @@
       <c r="E4288">
         <v>624584</v>
       </c>
-      <c r="F4288" s="3">
+      <c r="F4288">
         <v>624584</v>
       </c>
     </row>
@@ -73739,7 +73738,7 @@
       <c r="E4289">
         <v>636785</v>
       </c>
-      <c r="F4289" s="3">
+      <c r="F4289">
         <v>636785</v>
       </c>
     </row>
@@ -73759,7 +73758,7 @@
       <c r="E4290">
         <v>659483</v>
       </c>
-      <c r="F4290" s="3">
+      <c r="F4290">
         <v>659483</v>
       </c>
     </row>
@@ -73779,7 +73778,7 @@
       <c r="E4291">
         <v>636327</v>
       </c>
-      <c r="F4291" s="3">
+      <c r="F4291">
         <v>636327</v>
       </c>
     </row>
@@ -73799,7 +73798,7 @@
       <c r="E4292">
         <v>625362</v>
       </c>
-      <c r="F4292" s="3">
+      <c r="F4292">
         <v>625362</v>
       </c>
     </row>
@@ -73819,7 +73818,7 @@
       <c r="E4293">
         <v>621627</v>
       </c>
-      <c r="F4293" s="3">
+      <c r="F4293">
         <v>621627</v>
       </c>
     </row>
@@ -73839,7 +73838,7 @@
       <c r="E4294">
         <v>596470</v>
       </c>
-      <c r="F4294" s="3">
+      <c r="F4294">
         <v>596470</v>
       </c>
     </row>
@@ -73859,7 +73858,7 @@
       <c r="E4295">
         <v>551009</v>
       </c>
-      <c r="F4295" s="3">
+      <c r="F4295">
         <v>551009</v>
       </c>
     </row>
@@ -73879,7 +73878,7 @@
       <c r="E4296">
         <v>552089</v>
       </c>
-      <c r="F4296" s="3">
+      <c r="F4296">
         <v>552089</v>
       </c>
     </row>
@@ -73899,7 +73898,7 @@
       <c r="E4297">
         <v>524883</v>
       </c>
-      <c r="F4297" s="3">
+      <c r="F4297">
         <v>524883</v>
       </c>
     </row>
@@ -73919,7 +73918,7 @@
       <c r="E4298">
         <v>524694</v>
       </c>
-      <c r="F4298" s="3">
+      <c r="F4298">
         <v>524694</v>
       </c>
     </row>
@@ -73939,7 +73938,7 @@
       <c r="E4299">
         <v>530764</v>
       </c>
-      <c r="F4299" s="3">
+      <c r="F4299">
         <v>530764</v>
       </c>
     </row>
@@ -73959,7 +73958,7 @@
       <c r="E4300">
         <v>545285</v>
       </c>
-      <c r="F4300" s="3">
+      <c r="F4300">
         <v>545285</v>
       </c>
     </row>
@@ -73979,7 +73978,7 @@
       <c r="E4301">
         <v>517340</v>
       </c>
-      <c r="F4301" s="3">
+      <c r="F4301">
         <v>517340</v>
       </c>
     </row>
@@ -73999,7 +73998,7 @@
       <c r="E4302">
         <v>510550</v>
       </c>
-      <c r="F4302" s="3">
+      <c r="F4302">
         <v>510550</v>
       </c>
     </row>
@@ -74019,7 +74018,7 @@
       <c r="E4303">
         <v>524136</v>
       </c>
-      <c r="F4303" s="3">
+      <c r="F4303">
         <v>524136</v>
       </c>
     </row>
@@ -74039,7 +74038,7 @@
       <c r="E4304">
         <v>482354</v>
       </c>
-      <c r="F4304" s="3">
+      <c r="F4304">
         <v>482354</v>
       </c>
     </row>
@@ -74059,7 +74058,7 @@
       <c r="E4305">
         <v>472185</v>
       </c>
-      <c r="F4305" s="3">
+      <c r="F4305">
         <v>472185</v>
       </c>
     </row>
@@ -74079,7 +74078,7 @@
       <c r="E4306">
         <v>465368</v>
       </c>
-      <c r="F4306" s="3">
+      <c r="F4306">
         <v>465368</v>
       </c>
     </row>
@@ -74099,7 +74098,7 @@
       <c r="E4307">
         <v>469610</v>
       </c>
-      <c r="F4307" s="3">
+      <c r="F4307">
         <v>469610</v>
       </c>
     </row>
@@ -74119,7 +74118,7 @@
       <c r="E4308">
         <v>476764</v>
       </c>
-      <c r="F4308" s="3">
+      <c r="F4308">
         <v>476764</v>
       </c>
     </row>
@@ -74139,7 +74138,7 @@
       <c r="E4309">
         <v>512602</v>
       </c>
-      <c r="F4309" s="3">
+      <c r="F4309">
         <v>512602</v>
       </c>
     </row>
@@ -74159,7 +74158,7 @@
       <c r="E4310">
         <v>492754</v>
       </c>
-      <c r="F4310" s="3">
+      <c r="F4310">
         <v>492754</v>
       </c>
     </row>
@@ -74179,7 +74178,7 @@
       <c r="E4311">
         <v>510532</v>
       </c>
-      <c r="F4311" s="3">
+      <c r="F4311">
         <v>510532</v>
       </c>
     </row>
@@ -74199,7 +74198,7 @@
       <c r="E4312">
         <v>517125</v>
       </c>
-      <c r="F4312" s="3">
+      <c r="F4312">
         <v>517125</v>
       </c>
     </row>
@@ -74219,7 +74218,7 @@
       <c r="E4313">
         <v>506052</v>
       </c>
-      <c r="F4313" s="3">
+      <c r="F4313">
         <v>506052</v>
       </c>
     </row>
@@ -74239,7 +74238,7 @@
       <c r="E4314">
         <v>532791</v>
       </c>
-      <c r="F4314" s="3">
+      <c r="F4314">
         <v>532791</v>
       </c>
     </row>
@@ -74259,7 +74258,7 @@
       <c r="E4315">
         <v>458408</v>
       </c>
-      <c r="F4315" s="3">
+      <c r="F4315">
         <v>458408</v>
       </c>
     </row>
@@ -74279,7 +74278,7 @@
       <c r="E4316">
         <v>434939</v>
       </c>
-      <c r="F4316" s="3">
+      <c r="F4316">
         <v>434939</v>
       </c>
     </row>
@@ -74299,7 +74298,7 @@
       <c r="E4317">
         <v>440836</v>
       </c>
-      <c r="F4317" s="3">
+      <c r="F4317">
         <v>440836</v>
       </c>
     </row>
@@ -74319,7 +74318,7 @@
       <c r="E4318">
         <v>411431</v>
       </c>
-      <c r="F4318" s="3">
+      <c r="F4318">
         <v>411431</v>
       </c>
     </row>
@@ -74339,7 +74338,7 @@
       <c r="E4319">
         <v>410853</v>
       </c>
-      <c r="F4319" s="3">
+      <c r="F4319">
         <v>410853</v>
       </c>
     </row>
@@ -74359,7 +74358,7 @@
       <c r="E4320">
         <v>358794</v>
       </c>
-      <c r="F4320" s="3">
+      <c r="F4320">
         <v>358794</v>
       </c>
     </row>
@@ -74379,7 +74378,7 @@
       <c r="E4321">
         <v>357709</v>
       </c>
-      <c r="F4321" s="3">
+      <c r="F4321">
         <v>357709</v>
       </c>
     </row>
@@ -74399,7 +74398,7 @@
       <c r="E4322">
         <v>370897</v>
       </c>
-      <c r="F4322" s="3">
+      <c r="F4322">
         <v>370897</v>
       </c>
     </row>
@@ -74419,7 +74418,7 @@
       <c r="E4323">
         <v>343699</v>
       </c>
-      <c r="F4323" s="3">
+      <c r="F4323">
         <v>343699</v>
       </c>
     </row>
@@ -74439,7 +74438,7 @@
       <c r="E4324">
         <v>342104</v>
       </c>
-      <c r="F4324" s="3">
+      <c r="F4324">
         <v>342104</v>
       </c>
     </row>
@@ -74459,7 +74458,7 @@
       <c r="E4325">
         <v>448106</v>
       </c>
-      <c r="F4325" s="3">
+      <c r="F4325">
         <v>448106</v>
       </c>
     </row>
@@ -74479,7 +74478,7 @@
       <c r="E4326">
         <v>467544</v>
       </c>
-      <c r="F4326" s="3">
+      <c r="F4326">
         <v>467544</v>
       </c>
     </row>
@@ -74499,7 +74498,7 @@
       <c r="E4327">
         <v>482388</v>
       </c>
-      <c r="F4327" s="3">
+      <c r="F4327">
         <v>482388</v>
       </c>
     </row>
@@ -74519,7 +74518,7 @@
       <c r="E4328">
         <v>450413</v>
       </c>
-      <c r="F4328" s="3">
+      <c r="F4328">
         <v>450413</v>
       </c>
     </row>
@@ -74539,7 +74538,7 @@
       <c r="E4329">
         <v>434922</v>
       </c>
-      <c r="F4329" s="3">
+      <c r="F4329">
         <v>434922</v>
       </c>
     </row>
@@ -74559,7 +74558,7 @@
       <c r="E4330">
         <v>429684</v>
       </c>
-      <c r="F4330" s="3">
+      <c r="F4330">
         <v>429684</v>
       </c>
     </row>
@@ -74579,7 +74578,7 @@
       <c r="E4331">
         <v>431253</v>
       </c>
-      <c r="F4331" s="3">
+      <c r="F4331">
         <v>431253</v>
       </c>
     </row>
@@ -74599,7 +74598,7 @@
       <c r="E4332">
         <v>430977</v>
       </c>
-      <c r="F4332" s="3">
+      <c r="F4332">
         <v>430977</v>
       </c>
     </row>
@@ -74619,7 +74618,7 @@
       <c r="E4333">
         <v>409809</v>
       </c>
-      <c r="F4333" s="3">
+      <c r="F4333">
         <v>409809</v>
       </c>
     </row>
@@ -74639,7 +74638,7 @@
       <c r="E4334">
         <v>412900</v>
       </c>
-      <c r="F4334" s="3">
+      <c r="F4334">
         <v>412900</v>
       </c>
     </row>
@@ -74659,7 +74658,7 @@
       <c r="E4335">
         <v>446685</v>
       </c>
-      <c r="F4335" s="3">
+      <c r="F4335">
         <v>446685</v>
       </c>
     </row>
@@ -74679,7 +74678,7 @@
       <c r="E4336">
         <v>386114</v>
       </c>
-      <c r="F4336" s="3">
+      <c r="F4336">
         <v>386114</v>
       </c>
     </row>
@@ -74699,7 +74698,7 @@
       <c r="E4337">
         <v>379620</v>
       </c>
-      <c r="F4337" s="3">
+      <c r="F4337">
         <v>379620</v>
       </c>
     </row>
@@ -74719,7 +74718,7 @@
       <c r="E4338">
         <v>379653</v>
       </c>
-      <c r="F4338" s="3">
+      <c r="F4338">
         <v>379653</v>
       </c>
     </row>
@@ -74739,7 +74738,7 @@
       <c r="E4339">
         <v>375694</v>
       </c>
-      <c r="F4339" s="3">
+      <c r="F4339">
         <v>375694</v>
       </c>
     </row>
@@ -74759,7 +74758,7 @@
       <c r="E4340">
         <v>385220</v>
       </c>
-      <c r="F4340" s="3">
+      <c r="F4340">
         <v>385220</v>
       </c>
     </row>
@@ -74779,7 +74778,7 @@
       <c r="E4341">
         <v>368000</v>
       </c>
-      <c r="F4341" s="3">
+      <c r="F4341">
         <v>368000</v>
       </c>
     </row>
@@ -74799,7 +74798,7 @@
       <c r="E4342">
         <v>346426</v>
       </c>
-      <c r="F4342" s="3">
+      <c r="F4342">
         <v>346426</v>
       </c>
     </row>
@@ -74819,7 +74818,7 @@
       <c r="E4343">
         <v>310363</v>
       </c>
-      <c r="F4343" s="3">
+      <c r="F4343">
         <v>310363</v>
       </c>
     </row>
@@ -74839,7 +74838,7 @@
       <c r="E4344">
         <v>321572</v>
       </c>
-      <c r="F4344" s="3">
+      <c r="F4344">
         <v>321572</v>
       </c>
     </row>
@@ -74859,7 +74858,7 @@
       <c r="E4345">
         <v>398974</v>
       </c>
-      <c r="F4345" s="3">
+      <c r="F4345">
         <v>398974</v>
       </c>
     </row>
@@ -74879,7 +74878,7 @@
       <c r="E4346">
         <v>377500</v>
       </c>
-      <c r="F4346" s="3">
+      <c r="F4346">
         <v>377500</v>
       </c>
     </row>
@@ -74899,7 +74898,7 @@
       <c r="E4347">
         <v>455623</v>
       </c>
-      <c r="F4347" s="3">
+      <c r="F4347">
         <v>455623</v>
       </c>
     </row>
@@ -74919,7 +74918,7 @@
       <c r="E4348">
         <v>454615</v>
       </c>
-      <c r="F4348" s="3">
+      <c r="F4348">
         <v>454615</v>
       </c>
     </row>
@@ -74939,7 +74938,7 @@
       <c r="E4349">
         <v>471005</v>
       </c>
-      <c r="F4349" s="3">
+      <c r="F4349">
         <v>471005</v>
       </c>
     </row>
@@ -74959,7 +74958,7 @@
       <c r="E4350">
         <v>579841</v>
       </c>
-      <c r="F4350" s="3">
+      <c r="F4350">
         <v>579841</v>
       </c>
     </row>
@@ -74979,8 +74978,1088 @@
       <c r="E4351">
         <v>572622</v>
       </c>
-      <c r="F4351" s="3">
+      <c r="F4351">
         <v>572622</v>
+      </c>
+    </row>
+    <row r="4352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4352" s="2">
+        <v>44952</v>
+      </c>
+      <c r="B4352" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4352">
+        <v>572622</v>
+      </c>
+      <c r="D4352">
+        <v>568553</v>
+      </c>
+      <c r="E4352">
+        <v>446685</v>
+      </c>
+      <c r="F4352">
+        <v>568553</v>
+      </c>
+    </row>
+    <row r="4353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4353" s="2">
+        <v>44953</v>
+      </c>
+      <c r="B4353" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4353">
+        <v>568553</v>
+      </c>
+      <c r="D4353">
+        <v>567827</v>
+      </c>
+      <c r="E4353">
+        <v>446685</v>
+      </c>
+      <c r="F4353">
+        <v>567827</v>
+      </c>
+    </row>
+    <row r="4354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4354" s="2">
+        <v>44956</v>
+      </c>
+      <c r="B4354" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4354">
+        <v>567827</v>
+      </c>
+      <c r="D4354">
+        <v>579826</v>
+      </c>
+      <c r="E4354">
+        <v>446685</v>
+      </c>
+      <c r="F4354">
+        <v>579826</v>
+      </c>
+    </row>
+    <row r="4355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4355" s="2">
+        <v>44957</v>
+      </c>
+      <c r="B4355" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4355">
+        <v>579826</v>
+      </c>
+      <c r="D4355">
+        <v>567908</v>
+      </c>
+      <c r="E4355">
+        <v>446685</v>
+      </c>
+      <c r="F4355">
+        <v>567908</v>
+      </c>
+    </row>
+    <row r="4356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4356" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B4356" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4356">
+        <v>567908</v>
+      </c>
+      <c r="D4356">
+        <v>500852</v>
+      </c>
+      <c r="E4356">
+        <v>567908</v>
+      </c>
+      <c r="F4356">
+        <v>500852</v>
+      </c>
+    </row>
+    <row r="4357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4357" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B4357" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4357">
+        <v>500852</v>
+      </c>
+      <c r="D4357">
+        <v>506179</v>
+      </c>
+      <c r="E4357">
+        <v>567908</v>
+      </c>
+      <c r="F4357">
+        <v>506179</v>
+      </c>
+    </row>
+    <row r="4358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4358" s="2">
+        <v>44960</v>
+      </c>
+      <c r="B4358" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4358">
+        <v>506179</v>
+      </c>
+      <c r="D4358">
+        <v>477618</v>
+      </c>
+      <c r="E4358">
+        <v>567908</v>
+      </c>
+      <c r="F4358">
+        <v>477618</v>
+      </c>
+    </row>
+    <row r="4359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4359" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B4359" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4359">
+        <v>477618</v>
+      </c>
+      <c r="D4359">
+        <v>489948</v>
+      </c>
+      <c r="E4359">
+        <v>567908</v>
+      </c>
+      <c r="F4359">
+        <v>489948</v>
+      </c>
+    </row>
+    <row r="4360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4360" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B4360" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4360">
+        <v>489948</v>
+      </c>
+      <c r="D4360">
+        <v>528118</v>
+      </c>
+      <c r="E4360">
+        <v>567908</v>
+      </c>
+      <c r="F4360">
+        <v>528118</v>
+      </c>
+    </row>
+    <row r="4361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4361" s="2">
+        <v>44965</v>
+      </c>
+      <c r="B4361" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4361">
+        <v>528118</v>
+      </c>
+      <c r="D4361">
+        <v>495838</v>
+      </c>
+      <c r="E4361">
+        <v>567908</v>
+      </c>
+      <c r="F4361">
+        <v>495838</v>
+      </c>
+    </row>
+    <row r="4362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4362" s="2">
+        <v>44966</v>
+      </c>
+      <c r="B4362" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4362">
+        <v>495838</v>
+      </c>
+      <c r="D4362">
+        <v>494252</v>
+      </c>
+      <c r="E4362">
+        <v>567908</v>
+      </c>
+      <c r="F4362">
+        <v>494252</v>
+      </c>
+    </row>
+    <row r="4363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4363" s="2">
+        <v>44967</v>
+      </c>
+      <c r="B4363" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4363">
+        <v>494252</v>
+      </c>
+      <c r="D4363">
+        <v>490201</v>
+      </c>
+      <c r="E4363">
+        <v>567908</v>
+      </c>
+      <c r="F4363">
+        <v>490201</v>
+      </c>
+    </row>
+    <row r="4364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4364" s="2">
+        <v>44970</v>
+      </c>
+      <c r="B4364" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4364">
+        <v>490201</v>
+      </c>
+      <c r="D4364">
+        <v>501103</v>
+      </c>
+      <c r="E4364">
+        <v>567908</v>
+      </c>
+      <c r="F4364">
+        <v>501103</v>
+      </c>
+    </row>
+    <row r="4365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4365" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B4365" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4365">
+        <v>501103</v>
+      </c>
+      <c r="D4365">
+        <v>526992</v>
+      </c>
+      <c r="E4365">
+        <v>567908</v>
+      </c>
+      <c r="F4365">
+        <v>526992</v>
+      </c>
+    </row>
+    <row r="4366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4366" s="2">
+        <v>44972</v>
+      </c>
+      <c r="B4366" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4366">
+        <v>526992</v>
+      </c>
+      <c r="D4366">
+        <v>439703</v>
+      </c>
+      <c r="E4366">
+        <v>567908</v>
+      </c>
+      <c r="F4366">
+        <v>439703</v>
+      </c>
+    </row>
+    <row r="4367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4367" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B4367" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4367">
+        <v>439703</v>
+      </c>
+      <c r="D4367">
+        <v>479039</v>
+      </c>
+      <c r="E4367">
+        <v>567908</v>
+      </c>
+      <c r="F4367">
+        <v>479039</v>
+      </c>
+    </row>
+    <row r="4368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4368" s="2">
+        <v>44974</v>
+      </c>
+      <c r="B4368" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4368">
+        <v>479039</v>
+      </c>
+      <c r="D4368">
+        <v>475675</v>
+      </c>
+      <c r="E4368">
+        <v>567908</v>
+      </c>
+      <c r="F4368">
+        <v>475675</v>
+      </c>
+    </row>
+    <row r="4369" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4369" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B4369" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4369">
+        <v>475675</v>
+      </c>
+      <c r="D4369">
+        <v>508286</v>
+      </c>
+      <c r="E4369">
+        <v>567908</v>
+      </c>
+      <c r="F4369">
+        <v>508286</v>
+      </c>
+    </row>
+    <row r="4370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4370" s="2">
+        <v>44979</v>
+      </c>
+      <c r="B4370" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4370">
+        <v>508286</v>
+      </c>
+      <c r="D4370">
+        <v>451307</v>
+      </c>
+      <c r="E4370">
+        <v>567908</v>
+      </c>
+      <c r="F4370">
+        <v>451307</v>
+      </c>
+    </row>
+    <row r="4371" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4371" s="2">
+        <v>44980</v>
+      </c>
+      <c r="B4371" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4371">
+        <v>451307</v>
+      </c>
+      <c r="D4371">
+        <v>363666</v>
+      </c>
+      <c r="E4371">
+        <v>567908</v>
+      </c>
+      <c r="F4371">
+        <v>363666</v>
+      </c>
+    </row>
+    <row r="4372" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4372" s="2">
+        <v>44981</v>
+      </c>
+      <c r="B4372" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4372">
+        <v>363666</v>
+      </c>
+      <c r="D4372">
+        <v>381671</v>
+      </c>
+      <c r="E4372">
+        <v>567908</v>
+      </c>
+      <c r="F4372">
+        <v>381671</v>
+      </c>
+    </row>
+    <row r="4373" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4373" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B4373" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4373">
+        <v>381671</v>
+      </c>
+      <c r="D4373">
+        <v>394017</v>
+      </c>
+      <c r="E4373">
+        <v>567908</v>
+      </c>
+      <c r="F4373">
+        <v>394017</v>
+      </c>
+    </row>
+    <row r="4374" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4374" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B4374" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4374">
+        <v>394017</v>
+      </c>
+      <c r="D4374">
+        <v>415005</v>
+      </c>
+      <c r="E4374">
+        <v>567908</v>
+      </c>
+      <c r="F4374">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="4375" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4375" s="2">
+        <v>44986</v>
+      </c>
+      <c r="B4375" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4375">
+        <v>415005</v>
+      </c>
+      <c r="D4375">
+        <v>351015</v>
+      </c>
+      <c r="E4375">
+        <v>415005</v>
+      </c>
+      <c r="F4375">
+        <v>351015</v>
+      </c>
+    </row>
+    <row r="4376" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4376" s="2">
+        <v>44987</v>
+      </c>
+      <c r="B4376" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4376">
+        <v>351015</v>
+      </c>
+      <c r="D4376">
+        <v>355232</v>
+      </c>
+      <c r="E4376">
+        <v>415005</v>
+      </c>
+      <c r="F4376">
+        <v>355232</v>
+      </c>
+    </row>
+    <row r="4377" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4377" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B4377" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4377">
+        <v>355232</v>
+      </c>
+      <c r="D4377">
+        <v>327193</v>
+      </c>
+      <c r="E4377">
+        <v>415005</v>
+      </c>
+      <c r="F4377">
+        <v>327193</v>
+      </c>
+    </row>
+    <row r="4378" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4378" s="2">
+        <v>44991</v>
+      </c>
+      <c r="B4378" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4378">
+        <v>327193</v>
+      </c>
+      <c r="D4378">
+        <v>340182</v>
+      </c>
+      <c r="E4378">
+        <v>415005</v>
+      </c>
+      <c r="F4378">
+        <v>340182</v>
+      </c>
+    </row>
+    <row r="4379" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4379" s="2">
+        <v>44992</v>
+      </c>
+      <c r="B4379" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4379">
+        <v>340182</v>
+      </c>
+      <c r="D4379">
+        <v>344724</v>
+      </c>
+      <c r="E4379">
+        <v>415005</v>
+      </c>
+      <c r="F4379">
+        <v>344724</v>
+      </c>
+    </row>
+    <row r="4380" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4380" s="2">
+        <v>44993</v>
+      </c>
+      <c r="B4380" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4380">
+        <v>344724</v>
+      </c>
+      <c r="D4380">
+        <v>311731</v>
+      </c>
+      <c r="E4380">
+        <v>415005</v>
+      </c>
+      <c r="F4380">
+        <v>311731</v>
+      </c>
+    </row>
+    <row r="4381" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4381" s="2">
+        <v>44994</v>
+      </c>
+      <c r="B4381" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4381">
+        <v>311731</v>
+      </c>
+      <c r="D4381">
+        <v>246969</v>
+      </c>
+      <c r="E4381">
+        <v>415005</v>
+      </c>
+      <c r="F4381">
+        <v>246969</v>
+      </c>
+    </row>
+    <row r="4382" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4382" s="2">
+        <v>44995</v>
+      </c>
+      <c r="B4382" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4382">
+        <v>246969</v>
+      </c>
+      <c r="D4382">
+        <v>208074</v>
+      </c>
+      <c r="E4382">
+        <v>415005</v>
+      </c>
+      <c r="F4382">
+        <v>208074</v>
+      </c>
+    </row>
+    <row r="4383" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4383" s="2">
+        <v>44998</v>
+      </c>
+      <c r="B4383" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4383">
+        <v>208074</v>
+      </c>
+      <c r="D4383">
+        <v>227312</v>
+      </c>
+      <c r="E4383">
+        <v>415005</v>
+      </c>
+      <c r="F4383">
+        <v>227312</v>
+      </c>
+    </row>
+    <row r="4384" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4384" s="2">
+        <v>44999</v>
+      </c>
+      <c r="B4384" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4384">
+        <v>227312</v>
+      </c>
+      <c r="D4384">
+        <v>253921</v>
+      </c>
+      <c r="E4384">
+        <v>415005</v>
+      </c>
+      <c r="F4384">
+        <v>253921</v>
+      </c>
+    </row>
+    <row r="4385" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4385" s="2">
+        <v>45000</v>
+      </c>
+      <c r="B4385" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4385">
+        <v>253921</v>
+      </c>
+      <c r="D4385">
+        <v>277643</v>
+      </c>
+      <c r="E4385">
+        <v>415005</v>
+      </c>
+      <c r="F4385">
+        <v>277643</v>
+      </c>
+    </row>
+    <row r="4386" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4386" s="2">
+        <v>45001</v>
+      </c>
+      <c r="B4386" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4386">
+        <v>277643</v>
+      </c>
+      <c r="D4386">
+        <v>285108</v>
+      </c>
+      <c r="E4386">
+        <v>415005</v>
+      </c>
+      <c r="F4386">
+        <v>285108</v>
+      </c>
+    </row>
+    <row r="4387" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4387" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B4387" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4387">
+        <v>285108</v>
+      </c>
+      <c r="D4387">
+        <v>280148</v>
+      </c>
+      <c r="E4387">
+        <v>415005</v>
+      </c>
+      <c r="F4387">
+        <v>280148</v>
+      </c>
+    </row>
+    <row r="4388" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4388" s="2">
+        <v>45005</v>
+      </c>
+      <c r="B4388" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4388">
+        <v>280148</v>
+      </c>
+      <c r="D4388">
+        <v>267101</v>
+      </c>
+      <c r="E4388">
+        <v>415005</v>
+      </c>
+      <c r="F4388">
+        <v>267101</v>
+      </c>
+    </row>
+    <row r="4389" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4389" s="2">
+        <v>45006</v>
+      </c>
+      <c r="B4389" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4389">
+        <v>267101</v>
+      </c>
+      <c r="D4389">
+        <v>224604</v>
+      </c>
+      <c r="E4389">
+        <v>415005</v>
+      </c>
+      <c r="F4389">
+        <v>224604</v>
+      </c>
+    </row>
+    <row r="4390" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4390" s="2">
+        <v>45007</v>
+      </c>
+      <c r="B4390" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4390">
+        <v>224604</v>
+      </c>
+      <c r="D4390">
+        <v>199856</v>
+      </c>
+      <c r="E4390">
+        <v>415005</v>
+      </c>
+      <c r="F4390">
+        <v>199856</v>
+      </c>
+    </row>
+    <row r="4391" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4391" s="2">
+        <v>45008</v>
+      </c>
+      <c r="B4391" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4391">
+        <v>199856</v>
+      </c>
+      <c r="D4391">
+        <v>192910</v>
+      </c>
+      <c r="E4391">
+        <v>415005</v>
+      </c>
+      <c r="F4391">
+        <v>192910</v>
+      </c>
+    </row>
+    <row r="4392" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4392" s="2">
+        <v>45009</v>
+      </c>
+      <c r="B4392" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4392">
+        <v>192910</v>
+      </c>
+      <c r="D4392">
+        <v>187365</v>
+      </c>
+      <c r="E4392">
+        <v>415005</v>
+      </c>
+      <c r="F4392">
+        <v>187365</v>
+      </c>
+    </row>
+    <row r="4393" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4393" s="2">
+        <v>45012</v>
+      </c>
+      <c r="B4393" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4393">
+        <v>187365</v>
+      </c>
+      <c r="D4393">
+        <v>200926</v>
+      </c>
+      <c r="E4393">
+        <v>415005</v>
+      </c>
+      <c r="F4393">
+        <v>200926</v>
+      </c>
+    </row>
+    <row r="4394" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4394" s="2">
+        <v>45013</v>
+      </c>
+      <c r="B4394" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4394">
+        <v>200926</v>
+      </c>
+      <c r="D4394">
+        <v>166348</v>
+      </c>
+      <c r="E4394">
+        <v>415005</v>
+      </c>
+      <c r="F4394">
+        <v>166348</v>
+      </c>
+    </row>
+    <row r="4395" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4395" s="2">
+        <v>45014</v>
+      </c>
+      <c r="B4395" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4395">
+        <v>166348</v>
+      </c>
+      <c r="D4395">
+        <v>162758</v>
+      </c>
+      <c r="E4395">
+        <v>415005</v>
+      </c>
+      <c r="F4395">
+        <v>162758</v>
+      </c>
+    </row>
+    <row r="4396" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4396" s="2">
+        <v>45015</v>
+      </c>
+      <c r="B4396" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4396">
+        <v>162758</v>
+      </c>
+      <c r="D4396">
+        <v>194336</v>
+      </c>
+      <c r="E4396">
+        <v>415005</v>
+      </c>
+      <c r="F4396">
+        <v>194336</v>
+      </c>
+    </row>
+    <row r="4397" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4397" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B4397" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4397">
+        <v>194336</v>
+      </c>
+      <c r="D4397">
+        <v>177692</v>
+      </c>
+      <c r="E4397">
+        <v>415005</v>
+      </c>
+      <c r="F4397">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="4398" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4398" s="2">
+        <v>45019</v>
+      </c>
+      <c r="B4398" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4398">
+        <v>177692</v>
+      </c>
+      <c r="D4398">
+        <v>173105</v>
+      </c>
+      <c r="E4398">
+        <v>177692</v>
+      </c>
+      <c r="F4398">
+        <v>173105</v>
+      </c>
+    </row>
+    <row r="4399" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4399" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B4399" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4399">
+        <v>173105</v>
+      </c>
+      <c r="D4399">
+        <v>140347</v>
+      </c>
+      <c r="E4399">
+        <v>177692</v>
+      </c>
+      <c r="F4399">
+        <v>140347</v>
+      </c>
+    </row>
+    <row r="4400" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4400" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B4400" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4400">
+        <v>140347</v>
+      </c>
+      <c r="D4400">
+        <v>140688</v>
+      </c>
+      <c r="E4400">
+        <v>177692</v>
+      </c>
+      <c r="F4400">
+        <v>140688</v>
+      </c>
+    </row>
+    <row r="4401" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4401" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B4401" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4401">
+        <v>140688</v>
+      </c>
+      <c r="D4401">
+        <v>112965</v>
+      </c>
+      <c r="E4401">
+        <v>177692</v>
+      </c>
+      <c r="F4401">
+        <v>112965</v>
+      </c>
+    </row>
+    <row r="4402" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4402" s="2">
+        <v>45023</v>
+      </c>
+      <c r="B4402" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4402">
+        <v>112965</v>
+      </c>
+      <c r="D4402">
+        <v>110822</v>
+      </c>
+      <c r="E4402">
+        <v>177692</v>
+      </c>
+      <c r="F4402">
+        <v>110822</v>
+      </c>
+    </row>
+    <row r="4403" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4403" s="2">
+        <v>45026</v>
+      </c>
+      <c r="B4403" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4403">
+        <v>110822</v>
+      </c>
+      <c r="D4403">
+        <v>125004</v>
+      </c>
+      <c r="E4403">
+        <v>177692</v>
+      </c>
+      <c r="F4403">
+        <v>125004</v>
+      </c>
+    </row>
+    <row r="4404" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4404" s="2">
+        <v>45027</v>
+      </c>
+      <c r="B4404" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4404">
+        <v>125004</v>
+      </c>
+      <c r="D4404">
+        <v>107469</v>
+      </c>
+      <c r="E4404">
+        <v>177692</v>
+      </c>
+      <c r="F4404">
+        <v>107469</v>
+      </c>
+    </row>
+    <row r="4405" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4405" s="2">
+        <v>45028</v>
+      </c>
+      <c r="B4405" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4405">
+        <v>107469</v>
+      </c>
+      <c r="D4405">
+        <v>86554</v>
+      </c>
+      <c r="E4405">
+        <v>177692</v>
+      </c>
+      <c r="F4405">
+        <v>86554</v>
       </c>
     </row>
   </sheetData>
